--- a/опт и Краснодар/2023/11,23/03,11,23 Кр_Сч_РнД/дв 03,11,23 счрсч от филиала.xlsx
+++ b/опт и Краснодар/2023/11,23/03,11,23 Кр_Сч_РнД/дв 03,11,23 счрсч от филиала.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\03,11,23 Кр_Сч_РнД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\11,23\03,11,23 Кр_Сч_РнД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47902D0-7329-4E05-90F5-1267130EC801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE4191-5B71-4209-9EA7-E33B1C3DDAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="15600" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$W$76</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="12"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -378,10 +378,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -4309,8 +4313,8 @@
   <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
